--- a/New folder/WES.AX002.xlsx
+++ b/New folder/WES.AX002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nafiz\Desktop\Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\Project_Nafiz\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C02397B-F8C0-4B77-9A1B-6FDE34BA11B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517E3FED-5233-4224-88C3-EF9B1CC7EDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6BBC13B2-87D5-41AF-8A37-B3AFB2AE5F2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6BBC13B2-87D5-41AF-8A37-B3AFB2AE5F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>WES</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C85E17-F3A2-42C7-BE24-3A11E0B9D82D}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +424,7 @@
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +446,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -452,7 +458,7 @@
         <v>40359</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -460,7 +466,7 @@
         <v>40724</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -468,7 +474,7 @@
         <v>41090</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -476,7 +482,7 @@
         <v>41455</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -484,7 +490,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -492,7 +498,7 @@
         <v>42185</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -500,7 +506,7 @@
         <v>42551</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -508,7 +514,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -516,7 +522,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
